--- a/IP_calculation_Pro/equipment_IP_database.xlsx
+++ b/IP_calculation_Pro/equipment_IP_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,23 +888,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Кормушка</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>767</v>
+        <v>2044</v>
       </c>
       <c r="C17" t="n">
-        <v>1022</v>
+        <v>2299</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.12.2.0</t>
+          <t>1.11.111.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.12.2.255</t>
+          <t>1.11.111.255</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -916,23 +916,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Кормушка</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7679</v>
+        <v>2300</v>
       </c>
       <c r="C18" t="n">
-        <v>7934</v>
+        <v>2811</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.1.111.0</t>
+          <t>1.12.122.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1.111.255</t>
+          <t>1.12.123.255</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -944,26 +944,54 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Замок</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2044</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2299</v>
+        <v>2559</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.111.1.0</t>
+          <t>1.18.81.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.111.1.255</t>
+          <t>1.18.90.255</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>511</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.1.2.255</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>open</t>
         </is>

--- a/IP_calculation_Pro/equipment_IP_database.xlsx
+++ b/IP_calculation_Pro/equipment_IP_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>equipment_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>first_serial_number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>last_serial_number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>first_IP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_IP</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ab_label</t>
         </is>
@@ -471,23 +476,28 @@
           <t>Блок управления камерами</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>10239</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.8.160.1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>10.8.199.255</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -499,23 +509,28 @@
           <t>Видеорегистратор</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>767</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.8.127.1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>10.8.129.255</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -527,23 +542,28 @@
           <t>Дом Кота Леопольда</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>с мышами</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>511</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.5.30.1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>10.5.31.255</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -555,23 +575,28 @@
           <t>Дом Кота Леопольда</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>без мышей</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>512</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>766</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>23.5.11.1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>23.5.11.255</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -583,23 +608,28 @@
           <t>Домик для Мышки Норушки</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>с трубой</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>5119</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.6.20.1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>10.6.39.255</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -611,23 +641,28 @@
           <t>Домик для Мышки Норушки</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>без трубы</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5120</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>7678</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.5.20.1</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>10.5.29.255</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -639,23 +674,28 @@
           <t>Коммутатор</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.028</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2559</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.8.10.1</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>10.8.19.255</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -667,23 +707,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>255</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.8.23.1</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>10.8.23.255</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -695,23 +740,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>256</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>510</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10.7.22.1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>10.7.22.255</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -723,23 +773,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>511</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>765</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.5.11.1</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>10.5.11.255</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -751,23 +806,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>766</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1532</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>10.8.88.1</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>10.8.90.255</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -779,23 +839,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>1533</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>2043</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.7.7.1</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>10.7.8.255</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -807,23 +872,28 @@
           <t>Медиамонитор</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.024</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>255</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>10.7.10.1</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>10.7.10.255</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -835,23 +905,28 @@
           <t>Монитор</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1279</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>10.8.95.1</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>10.8.99.255</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -863,23 +938,28 @@
           <t>Видеорегистратор</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>768</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1022</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>10.10.10.1</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>10.10.10.255</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -891,23 +971,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>2044</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>2299</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1.11.111.0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.11.111.255</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -916,26 +1001,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кормушка</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2300</v>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.12.122.0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2559</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.12.123.255</t>
+          <t>1.18.81.1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>1.18.90.255</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -944,26 +1034,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Замок</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>на горошине</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.18.81.1</t>
-        </is>
+      <c r="D19" t="n">
+        <v>511</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.18.90.255</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>1.1.2.255</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -972,26 +1067,130 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Принцесса</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+          <t>Дом Кота Леопольда</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>без мышей</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>767</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11.1.1.1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>11.1.1.255</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
-        <v>511</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.1.1.1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.1.2.255</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="D21" t="n">
+        <v>255</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>111.111.1.1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>111.111.1.255</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>255</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.8.8.1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>88.8.8.255</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>256</v>
+      </c>
+      <c r="D23" t="n">
+        <v>510</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9.99.99.1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.99.99.255</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>open</t>
         </is>

--- a/IP_calculation_Pro/equipment_IP_database.xlsx
+++ b/IP_calculation_Pro/equipment_IP_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +997,34 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>test name</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65794</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.1.1.1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10.2.2.2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/IP_calculation_Pro/equipment_IP_database.xlsx
+++ b/IP_calculation_Pro/equipment_IP_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>equipment_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>first_serial_number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>last_serial_number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>first_IP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_IP</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ab_label</t>
         </is>
@@ -471,23 +476,28 @@
           <t>Блок управления камерами</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>10239</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.8.160.1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>10.8.199.255</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -499,23 +509,28 @@
           <t>Видеорегистратор</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>767</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.8.127.1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>10.8.129.255</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -527,23 +542,28 @@
           <t>Дом Кота Леопольда</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>с мышами</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>511</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.5.30.1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>10.5.31.255</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -555,23 +575,28 @@
           <t>Дом Кота Леопольда</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>без мышей</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>512</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>766</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>23.5.11.1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>23.5.11.255</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -583,23 +608,28 @@
           <t>Домик для Мышки Норушки</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>с трубой</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>5119</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.6.20.1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>10.6.39.255</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -611,23 +641,28 @@
           <t>Домик для Мышки Норушки</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>без трубы</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5120</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>7678</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.5.20.1</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>10.5.29.255</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -639,23 +674,28 @@
           <t>Коммутатор</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.028</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2559</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.8.10.1</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>10.8.19.255</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -667,23 +707,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>255</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.8.23.1</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>10.8.23.255</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -695,23 +740,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>256</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>510</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10.7.22.1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>10.7.22.255</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -723,23 +773,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>511</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>765</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.5.11.1</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>10.5.11.255</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -751,23 +806,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>766</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1532</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>10.8.88.1</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>10.8.90.255</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -779,23 +839,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>для зяблика</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>1533</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>2043</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.7.7.1</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>10.7.8.255</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -807,23 +872,28 @@
           <t>Медиамонитор</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.024</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>255</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>10.7.10.1</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>10.7.10.255</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -835,23 +905,28 @@
           <t>Монитор</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1279</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>10.8.95.1</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>10.8.99.255</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -863,23 +938,28 @@
           <t>Видеорегистратор</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>768</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1022</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>10.10.10.1</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>10.10.10.255</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -891,23 +971,28 @@
           <t>Кормушка</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>2044</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>2299</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1.11.111.0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.11.111.255</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -916,26 +1001,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кормушка</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2300</v>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.12.122.0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2559</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.12.123.255</t>
+          <t>1.18.81.1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>1.18.90.255</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -944,26 +1034,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Замок</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>на горошине</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.18.81.1</t>
-        </is>
+      <c r="D19" t="n">
+        <v>511</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.18.90.255</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>1.1.2.255</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -972,26 +1067,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Принцесса</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
+          <t>Дом Кота Леопольда</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>без мышей</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>511</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.1.1.1</t>
-        </is>
+        <v>767</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1021</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.1.2.255</t>
+          <t>11.1.1.1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>11.1.1.255</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -1000,26 +1100,130 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>test name</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
-        <v>65794</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.1.1.1</t>
-        </is>
+      <c r="D21" t="n">
+        <v>255</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10.2.2.2</t>
+          <t>111.111.1.1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>111.111.1.255</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>255</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.8.8.1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>88.8.8.255</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>256</v>
+      </c>
+      <c r="D23" t="n">
+        <v>510</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9.99.99.1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.99.99.255</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>невеста</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>255</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.77.1.1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>77.77.1.255</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>open</t>
         </is>
